--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.061428825447</v>
+        <v>21.443826</v>
       </c>
       <c r="H2">
-        <v>14.061428825447</v>
+        <v>64.331478</v>
       </c>
       <c r="I2">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="J2">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.12580728471186</v>
+        <v>5.379592</v>
       </c>
       <c r="N2">
-        <v>4.12580728471186</v>
+        <v>16.138776</v>
       </c>
       <c r="O2">
-        <v>0.1116237772295619</v>
+        <v>0.1347369221116526</v>
       </c>
       <c r="P2">
-        <v>0.1116237772295619</v>
+        <v>0.1347369221116527</v>
       </c>
       <c r="Q2">
-        <v>58.01474548148657</v>
+        <v>115.359034798992</v>
       </c>
       <c r="R2">
-        <v>58.01474548148657</v>
+        <v>1038.231313190928</v>
       </c>
       <c r="S2">
-        <v>0.07120627602136641</v>
+        <v>0.08169071194657712</v>
       </c>
       <c r="T2">
-        <v>0.07120627602136641</v>
+        <v>0.08169071194657716</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.061428825447</v>
+        <v>21.443826</v>
       </c>
       <c r="H3">
-        <v>14.061428825447</v>
+        <v>64.331478</v>
       </c>
       <c r="I3">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="J3">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.9403220212655</v>
+        <v>13.148327</v>
       </c>
       <c r="N3">
-        <v>12.9403220212655</v>
+        <v>39.444981</v>
       </c>
       <c r="O3">
-        <v>0.3501006040521866</v>
+        <v>0.3293121691937864</v>
       </c>
       <c r="P3">
-        <v>0.3501006040521866</v>
+        <v>0.3293121691937864</v>
       </c>
       <c r="Q3">
-        <v>181.9594170803893</v>
+        <v>281.950436379102</v>
       </c>
       <c r="R3">
-        <v>181.9594170803893</v>
+        <v>2537.553927411918</v>
       </c>
       <c r="S3">
-        <v>0.2233337812616588</v>
+        <v>0.1996612742260756</v>
       </c>
       <c r="T3">
-        <v>0.2233337812616588</v>
+        <v>0.1996612742260757</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.061428825447</v>
+        <v>21.443826</v>
       </c>
       <c r="H4">
-        <v>14.061428825447</v>
+        <v>64.331478</v>
       </c>
       <c r="I4">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="J4">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.98374011477995</v>
+        <v>5.33802</v>
       </c>
       <c r="N4">
-        <v>4.98374011477995</v>
+        <v>16.01406</v>
       </c>
       <c r="O4">
-        <v>0.1348351626610402</v>
+        <v>0.133695712420281</v>
       </c>
       <c r="P4">
-        <v>0.1348351626610402</v>
+        <v>0.133695712420281</v>
       </c>
       <c r="Q4">
-        <v>70.07850690850333</v>
+        <v>114.46757206452</v>
       </c>
       <c r="R4">
-        <v>70.07850690850333</v>
+        <v>1030.20814858068</v>
       </c>
       <c r="S4">
-        <v>0.08601312415796979</v>
+        <v>0.08105942870482886</v>
       </c>
       <c r="T4">
-        <v>0.08601312415796979</v>
+        <v>0.08105942870482888</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.061428825447</v>
+        <v>21.443826</v>
       </c>
       <c r="H5">
-        <v>14.061428825447</v>
+        <v>64.331478</v>
       </c>
       <c r="I5">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="J5">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.06772483287142</v>
+        <v>5.091788666666666</v>
       </c>
       <c r="N5">
-        <v>5.06772483287142</v>
+        <v>15.275366</v>
       </c>
       <c r="O5">
-        <v>0.1371073704536018</v>
+        <v>0.1275286179676195</v>
       </c>
       <c r="P5">
-        <v>0.1371073704536018</v>
+        <v>0.1275286179676196</v>
       </c>
       <c r="Q5">
-        <v>71.25945204437177</v>
+        <v>109.187430196772</v>
       </c>
       <c r="R5">
-        <v>71.25945204437177</v>
+        <v>982.686871770948</v>
       </c>
       <c r="S5">
-        <v>0.08746259540209639</v>
+        <v>0.07732033233403438</v>
       </c>
       <c r="T5">
-        <v>0.08746259540209639</v>
+        <v>0.0773203323340344</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.061428825447</v>
+        <v>21.443826</v>
       </c>
       <c r="H6">
-        <v>14.061428825447</v>
+        <v>64.331478</v>
       </c>
       <c r="I6">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="J6">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.684767107799819</v>
+        <v>0.855806</v>
       </c>
       <c r="N6">
-        <v>0.684767107799819</v>
+        <v>2.567418</v>
       </c>
       <c r="O6">
-        <v>0.018526384249311</v>
+        <v>0.02143446312744256</v>
       </c>
       <c r="P6">
-        <v>0.018526384249311</v>
+        <v>0.02143446312744257</v>
       </c>
       <c r="Q6">
-        <v>9.628803948334347</v>
+        <v>18.351754953756</v>
       </c>
       <c r="R6">
-        <v>9.628803948334347</v>
+        <v>165.165794583804</v>
       </c>
       <c r="S6">
-        <v>0.01181822424644635</v>
+        <v>0.01299566982554669</v>
       </c>
       <c r="T6">
-        <v>0.01181822424644635</v>
+        <v>0.0129956698255467</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.061428825447</v>
+        <v>21.443826</v>
       </c>
       <c r="H7">
-        <v>14.061428825447</v>
+        <v>64.331478</v>
       </c>
       <c r="I7">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="J7">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.159362987200661</v>
+        <v>10.113102</v>
       </c>
       <c r="N7">
-        <v>9.159362987200661</v>
+        <v>30.339306</v>
       </c>
       <c r="O7">
-        <v>0.2478067013542985</v>
+        <v>0.2532921151792178</v>
       </c>
       <c r="P7">
-        <v>0.2478067013542985</v>
+        <v>0.2532921151792179</v>
       </c>
       <c r="Q7">
-        <v>128.7937307309557</v>
+        <v>216.863599608252</v>
       </c>
       <c r="R7">
-        <v>128.7937307309557</v>
+        <v>1951.772396474268</v>
       </c>
       <c r="S7">
-        <v>0.1580791549482289</v>
+        <v>0.1535704756733137</v>
       </c>
       <c r="T7">
-        <v>0.1580791549482289</v>
+        <v>0.1535704756733138</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.63786299271702</v>
+        <v>3.641794</v>
       </c>
       <c r="H8">
-        <v>3.63786299271702</v>
+        <v>10.925382</v>
       </c>
       <c r="I8">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="J8">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.12580728471186</v>
+        <v>5.379592</v>
       </c>
       <c r="N8">
-        <v>4.12580728471186</v>
+        <v>16.138776</v>
       </c>
       <c r="O8">
-        <v>0.1116237772295619</v>
+        <v>0.1347369221116526</v>
       </c>
       <c r="P8">
-        <v>0.1116237772295619</v>
+        <v>0.1347369221116527</v>
       </c>
       <c r="Q8">
-        <v>15.00912163613557</v>
+        <v>19.591365868048</v>
       </c>
       <c r="R8">
-        <v>15.00912163613557</v>
+        <v>176.322292812432</v>
       </c>
       <c r="S8">
-        <v>0.01842193134161013</v>
+        <v>0.01387349182103851</v>
       </c>
       <c r="T8">
-        <v>0.01842193134161013</v>
+        <v>0.01387349182103851</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.63786299271702</v>
+        <v>3.641794</v>
       </c>
       <c r="H9">
-        <v>3.63786299271702</v>
+        <v>10.925382</v>
       </c>
       <c r="I9">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="J9">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.9403220212655</v>
+        <v>13.148327</v>
       </c>
       <c r="N9">
-        <v>12.9403220212655</v>
+        <v>39.444981</v>
       </c>
       <c r="O9">
-        <v>0.3501006040521866</v>
+        <v>0.3293121691937864</v>
       </c>
       <c r="P9">
-        <v>0.3501006040521866</v>
+        <v>0.3293121691937864</v>
       </c>
       <c r="Q9">
-        <v>47.07511859500286</v>
+        <v>47.88349837863801</v>
       </c>
       <c r="R9">
-        <v>47.07511859500286</v>
+        <v>430.951485407742</v>
       </c>
       <c r="S9">
-        <v>0.05777917080553294</v>
+        <v>0.03390837206517516</v>
       </c>
       <c r="T9">
-        <v>0.05777917080553294</v>
+        <v>0.03390837206517517</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.63786299271702</v>
+        <v>3.641794</v>
       </c>
       <c r="H10">
-        <v>3.63786299271702</v>
+        <v>10.925382</v>
       </c>
       <c r="I10">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="J10">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.98374011477995</v>
+        <v>5.33802</v>
       </c>
       <c r="N10">
-        <v>4.98374011477995</v>
+        <v>16.01406</v>
       </c>
       <c r="O10">
-        <v>0.1348351626610402</v>
+        <v>0.133695712420281</v>
       </c>
       <c r="P10">
-        <v>0.1348351626610402</v>
+        <v>0.133695712420281</v>
       </c>
       <c r="Q10">
-        <v>18.13016372887725</v>
+        <v>19.43996920788</v>
       </c>
       <c r="R10">
-        <v>18.13016372887725</v>
+        <v>174.95972287092</v>
       </c>
       <c r="S10">
-        <v>0.02225264339396218</v>
+        <v>0.01376628131102507</v>
       </c>
       <c r="T10">
-        <v>0.02225264339396218</v>
+        <v>0.01376628131102507</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.63786299271702</v>
+        <v>3.641794</v>
       </c>
       <c r="H11">
-        <v>3.63786299271702</v>
+        <v>10.925382</v>
       </c>
       <c r="I11">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="J11">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.06772483287142</v>
+        <v>5.091788666666666</v>
       </c>
       <c r="N11">
-        <v>5.06772483287142</v>
+        <v>15.275366</v>
       </c>
       <c r="O11">
-        <v>0.1371073704536018</v>
+        <v>0.1275286179676195</v>
       </c>
       <c r="P11">
-        <v>0.1371073704536018</v>
+        <v>0.1275286179676196</v>
       </c>
       <c r="Q11">
-        <v>18.43568862677598</v>
+        <v>18.54324541553467</v>
       </c>
       <c r="R11">
-        <v>18.43568862677598</v>
+        <v>166.889208739812</v>
       </c>
       <c r="S11">
-        <v>0.02262763926838379</v>
+        <v>0.01313127248710619</v>
       </c>
       <c r="T11">
-        <v>0.02262763926838379</v>
+        <v>0.0131312724871062</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.63786299271702</v>
+        <v>3.641794</v>
       </c>
       <c r="H12">
-        <v>3.63786299271702</v>
+        <v>10.925382</v>
       </c>
       <c r="I12">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="J12">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.684767107799819</v>
+        <v>0.855806</v>
       </c>
       <c r="N12">
-        <v>0.684767107799819</v>
+        <v>2.567418</v>
       </c>
       <c r="O12">
-        <v>0.018526384249311</v>
+        <v>0.02143446312744256</v>
       </c>
       <c r="P12">
-        <v>0.018526384249311</v>
+        <v>0.02143446312744257</v>
       </c>
       <c r="Q12">
-        <v>2.491088920094827</v>
+        <v>3.116669155964</v>
       </c>
       <c r="R12">
-        <v>2.491088920094827</v>
+        <v>28.050022403676</v>
       </c>
       <c r="S12">
-        <v>0.003057518631959611</v>
+        <v>0.002207047958543265</v>
       </c>
       <c r="T12">
-        <v>0.003057518631959611</v>
+        <v>0.002207047958543266</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.63786299271702</v>
+        <v>3.641794</v>
       </c>
       <c r="H13">
-        <v>3.63786299271702</v>
+        <v>10.925382</v>
       </c>
       <c r="I13">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="J13">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.159362987200661</v>
+        <v>10.113102</v>
       </c>
       <c r="N13">
-        <v>9.159362987200661</v>
+        <v>30.339306</v>
       </c>
       <c r="O13">
-        <v>0.2478067013542985</v>
+        <v>0.2532921151792178</v>
       </c>
       <c r="P13">
-        <v>0.2478067013542985</v>
+        <v>0.2532921151792179</v>
       </c>
       <c r="Q13">
-        <v>33.3205076479993</v>
+        <v>36.829834184988</v>
       </c>
       <c r="R13">
-        <v>33.3205076479993</v>
+        <v>331.4685076648921</v>
       </c>
       <c r="S13">
-        <v>0.04089700377144001</v>
+        <v>0.02608079532468785</v>
       </c>
       <c r="T13">
-        <v>0.04089700377144001</v>
+        <v>0.02608079532468786</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.3435657281295</v>
+        <v>10.28284533333333</v>
       </c>
       <c r="H14">
-        <v>4.3435657281295</v>
+        <v>30.848536</v>
       </c>
       <c r="I14">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="J14">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.12580728471186</v>
+        <v>5.379592</v>
       </c>
       <c r="N14">
-        <v>4.12580728471186</v>
+        <v>16.138776</v>
       </c>
       <c r="O14">
-        <v>0.1116237772295619</v>
+        <v>0.1347369221116526</v>
       </c>
       <c r="P14">
-        <v>0.1116237772295619</v>
+        <v>0.1347369221116527</v>
       </c>
       <c r="Q14">
-        <v>17.92071512274147</v>
+        <v>55.31751249243732</v>
       </c>
       <c r="R14">
-        <v>17.92071512274147</v>
+        <v>497.857612431936</v>
       </c>
       <c r="S14">
-        <v>0.02199556986658534</v>
+        <v>0.03917271834403702</v>
       </c>
       <c r="T14">
-        <v>0.02199556986658534</v>
+        <v>0.03917271834403704</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.3435657281295</v>
+        <v>10.28284533333333</v>
       </c>
       <c r="H15">
-        <v>4.3435657281295</v>
+        <v>30.848536</v>
       </c>
       <c r="I15">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="J15">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.9403220212655</v>
+        <v>13.148327</v>
       </c>
       <c r="N15">
-        <v>12.9403220212655</v>
+        <v>39.444981</v>
       </c>
       <c r="O15">
-        <v>0.3501006040521866</v>
+        <v>0.3293121691937864</v>
       </c>
       <c r="P15">
-        <v>0.3501006040521866</v>
+        <v>0.3293121691937864</v>
       </c>
       <c r="Q15">
-        <v>56.20713924252828</v>
+        <v>135.2022129330907</v>
       </c>
       <c r="R15">
-        <v>56.20713924252828</v>
+        <v>1216.819916397816</v>
       </c>
       <c r="S15">
-        <v>0.06898765198499479</v>
+        <v>0.0957425229025356</v>
       </c>
       <c r="T15">
-        <v>0.06898765198499479</v>
+        <v>0.09574252290253561</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.3435657281295</v>
+        <v>10.28284533333333</v>
       </c>
       <c r="H16">
-        <v>4.3435657281295</v>
+        <v>30.848536</v>
       </c>
       <c r="I16">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="J16">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.98374011477995</v>
+        <v>5.33802</v>
       </c>
       <c r="N16">
-        <v>4.98374011477995</v>
+        <v>16.01406</v>
       </c>
       <c r="O16">
-        <v>0.1348351626610402</v>
+        <v>0.133695712420281</v>
       </c>
       <c r="P16">
-        <v>0.1348351626610402</v>
+        <v>0.133695712420281</v>
       </c>
       <c r="Q16">
-        <v>21.64720276046237</v>
+        <v>54.89003404624</v>
       </c>
       <c r="R16">
-        <v>21.64720276046237</v>
+        <v>494.01030641616</v>
       </c>
       <c r="S16">
-        <v>0.02656939510910824</v>
+        <v>0.03887000240442705</v>
       </c>
       <c r="T16">
-        <v>0.02656939510910824</v>
+        <v>0.03887000240442706</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>26</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.3435657281295</v>
+        <v>10.28284533333333</v>
       </c>
       <c r="H17">
-        <v>4.3435657281295</v>
+        <v>30.848536</v>
       </c>
       <c r="I17">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="J17">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.06772483287142</v>
+        <v>5.091788666666666</v>
       </c>
       <c r="N17">
-        <v>5.06772483287142</v>
+        <v>15.275366</v>
       </c>
       <c r="O17">
-        <v>0.1371073704536018</v>
+        <v>0.1275286179676195</v>
       </c>
       <c r="P17">
-        <v>0.1371073704536018</v>
+        <v>0.1275286179676196</v>
       </c>
       <c r="Q17">
-        <v>22.0119959036511</v>
+        <v>52.35807532935288</v>
       </c>
       <c r="R17">
-        <v>22.0119959036511</v>
+        <v>471.2226779641759</v>
       </c>
       <c r="S17">
-        <v>0.02701713578312167</v>
+        <v>0.03707701314647897</v>
       </c>
       <c r="T17">
-        <v>0.02701713578312167</v>
+        <v>0.03707701314647899</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.3435657281295</v>
+        <v>10.28284533333333</v>
       </c>
       <c r="H18">
-        <v>4.3435657281295</v>
+        <v>30.848536</v>
       </c>
       <c r="I18">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="J18">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.684767107799819</v>
+        <v>0.855806</v>
       </c>
       <c r="N18">
-        <v>0.684767107799819</v>
+        <v>2.567418</v>
       </c>
       <c r="O18">
-        <v>0.018526384249311</v>
+        <v>0.02143446312744256</v>
       </c>
       <c r="P18">
-        <v>0.018526384249311</v>
+        <v>0.02143446312744257</v>
       </c>
       <c r="Q18">
-        <v>2.974330941189652</v>
+        <v>8.800120733338666</v>
       </c>
       <c r="R18">
-        <v>2.974330941189652</v>
+        <v>79.201086600048</v>
       </c>
       <c r="S18">
-        <v>0.003650641370905037</v>
+        <v>0.006231745343352609</v>
       </c>
       <c r="T18">
-        <v>0.003650641370905037</v>
+        <v>0.006231745343352611</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.3435657281295</v>
+        <v>10.28284533333333</v>
       </c>
       <c r="H19">
-        <v>4.3435657281295</v>
+        <v>30.848536</v>
       </c>
       <c r="I19">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="J19">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.159362987200661</v>
+        <v>10.113102</v>
       </c>
       <c r="N19">
-        <v>9.159362987200661</v>
+        <v>30.339306</v>
       </c>
       <c r="O19">
-        <v>0.2478067013542985</v>
+        <v>0.2532921151792178</v>
       </c>
       <c r="P19">
-        <v>0.2478067013542985</v>
+        <v>0.2532921151792179</v>
       </c>
       <c r="Q19">
-        <v>39.78429516270263</v>
+        <v>103.991463706224</v>
       </c>
       <c r="R19">
-        <v>39.78429516270263</v>
+        <v>935.923173356016</v>
       </c>
       <c r="S19">
-        <v>0.04883054263462962</v>
+        <v>0.07364084418121625</v>
       </c>
       <c r="T19">
-        <v>0.04883054263462962</v>
+        <v>0.07364084418121629</v>
       </c>
     </row>
   </sheetData>
